--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.572263887465389</v>
+        <v>0.224617</v>
       </c>
       <c r="H2">
-        <v>0.572263887465389</v>
+        <v>0.673851</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.223433695150483</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3014711375983185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.9250579182909</v>
+        <v>17.947853</v>
       </c>
       <c r="N2">
-        <v>17.9250579182909</v>
+        <v>35.895706</v>
       </c>
       <c r="O2">
-        <v>0.4429449148759934</v>
+        <v>0.4337138114960137</v>
       </c>
       <c r="P2">
-        <v>0.4429449148759934</v>
+        <v>0.3586943164132274</v>
       </c>
       <c r="Q2">
-        <v>10.2578633273634</v>
+        <v>4.031392897301</v>
       </c>
       <c r="R2">
-        <v>10.2578633273634</v>
+        <v>24.188357383806</v>
       </c>
       <c r="S2">
-        <v>0.4429449148759934</v>
+        <v>0.09690627954035438</v>
       </c>
       <c r="T2">
-        <v>0.4429449148759934</v>
+        <v>0.1081359836191469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.572263887465389</v>
+        <v>0.224617</v>
       </c>
       <c r="H3">
-        <v>0.572263887465389</v>
+        <v>0.673851</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.223433695150483</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3014711375983185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.27501048194979</v>
+        <v>4.537805333333334</v>
       </c>
       <c r="N3">
-        <v>4.27501048194979</v>
+        <v>13.613416</v>
       </c>
       <c r="O3">
-        <v>0.1056394998918797</v>
+        <v>0.1096570629894806</v>
       </c>
       <c r="P3">
-        <v>0.1056394998918797</v>
+        <v>0.1360345147179691</v>
       </c>
       <c r="Q3">
-        <v>2.446434117355873</v>
+        <v>1.019268220557333</v>
       </c>
       <c r="R3">
-        <v>2.446434117355873</v>
+        <v>9.173413985015999</v>
       </c>
       <c r="S3">
-        <v>0.1056394998918797</v>
+        <v>0.02450108278308893</v>
       </c>
       <c r="T3">
-        <v>0.1056394998918797</v>
+        <v>0.04101047990466135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.572263887465389</v>
+        <v>0.224617</v>
       </c>
       <c r="H4">
-        <v>0.572263887465389</v>
+        <v>0.673851</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.223433695150483</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3014711375983185</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.5005197415272</v>
+        <v>0.01289433333333333</v>
       </c>
       <c r="N4">
-        <v>12.5005197415272</v>
+        <v>0.038683</v>
       </c>
       <c r="O4">
-        <v>0.3088995125179702</v>
+        <v>0.0003115943983216321</v>
       </c>
       <c r="P4">
-        <v>0.3088995125179702</v>
+        <v>0.0003865468544291307</v>
       </c>
       <c r="Q4">
-        <v>7.153596022624195</v>
+        <v>0.002896286470333333</v>
       </c>
       <c r="R4">
-        <v>7.153596022624195</v>
+        <v>0.026066578233</v>
       </c>
       <c r="S4">
-        <v>0.3088995125179702</v>
+        <v>6.962068780519373E-05</v>
       </c>
       <c r="T4">
-        <v>0.3088995125179702</v>
+        <v>0.0001165327199398017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -720,49 +723,421 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.572263887465389</v>
+        <v>0.224617</v>
       </c>
       <c r="H5">
-        <v>0.572263887465389</v>
+        <v>0.673851</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.223433695150483</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3014711375983185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.76732855913654</v>
+        <v>12.75897433333333</v>
       </c>
       <c r="N5">
-        <v>5.76732855913654</v>
+        <v>38.276923</v>
       </c>
       <c r="O5">
-        <v>0.1425160727141569</v>
+        <v>0.3083234183436765</v>
       </c>
       <c r="P5">
-        <v>0.1425160727141569</v>
+        <v>0.3824890567659189</v>
       </c>
       <c r="Q5">
-        <v>3.300433861541637</v>
+        <v>2.865882537830333</v>
       </c>
       <c r="R5">
-        <v>3.300433861541637</v>
+        <v>25.792942840473</v>
       </c>
       <c r="S5">
-        <v>0.1425160727141569</v>
+        <v>0.06888984066195586</v>
       </c>
       <c r="T5">
-        <v>0.1425160727141569</v>
+        <v>0.1153094110621294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.224617</v>
+      </c>
+      <c r="H6">
+        <v>0.673851</v>
+      </c>
+      <c r="I6">
+        <v>0.223433695150483</v>
+      </c>
+      <c r="J6">
+        <v>0.3014711375983185</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.124261000000001</v>
+      </c>
+      <c r="N6">
+        <v>12.248522</v>
+      </c>
+      <c r="O6">
+        <v>0.1479941127725076</v>
+      </c>
+      <c r="P6">
+        <v>0.1223955652484555</v>
+      </c>
+      <c r="Q6">
+        <v>1.375613133037</v>
+      </c>
+      <c r="R6">
+        <v>8.253678798222001</v>
+      </c>
+      <c r="S6">
+        <v>0.03306687147727867</v>
+      </c>
+      <c r="T6">
+        <v>0.0368987302924411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.780679</v>
+      </c>
+      <c r="H7">
+        <v>1.561358</v>
+      </c>
+      <c r="I7">
+        <v>0.7765663048495169</v>
+      </c>
+      <c r="J7">
+        <v>0.6985288624016814</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>17.947853</v>
+      </c>
+      <c r="N7">
+        <v>35.895706</v>
+      </c>
+      <c r="O7">
+        <v>0.4337138114960137</v>
+      </c>
+      <c r="P7">
+        <v>0.3586943164132274</v>
+      </c>
+      <c r="Q7">
+        <v>14.011511932187</v>
+      </c>
+      <c r="R7">
+        <v>56.04604772874801</v>
+      </c>
+      <c r="S7">
+        <v>0.3368075319556593</v>
+      </c>
+      <c r="T7">
+        <v>0.2505583327940805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.780679</v>
+      </c>
+      <c r="H8">
+        <v>1.561358</v>
+      </c>
+      <c r="I8">
+        <v>0.7765663048495169</v>
+      </c>
+      <c r="J8">
+        <v>0.6985288624016814</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.537805333333334</v>
+      </c>
+      <c r="N8">
+        <v>13.613416</v>
+      </c>
+      <c r="O8">
+        <v>0.1096570629894806</v>
+      </c>
+      <c r="P8">
+        <v>0.1360345147179691</v>
+      </c>
+      <c r="Q8">
+        <v>3.542569329821334</v>
+      </c>
+      <c r="R8">
+        <v>21.255415978928</v>
+      </c>
+      <c r="S8">
+        <v>0.0851559802063917</v>
+      </c>
+      <c r="T8">
+        <v>0.09502403481330775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.780679</v>
+      </c>
+      <c r="H9">
+        <v>1.561358</v>
+      </c>
+      <c r="I9">
+        <v>0.7765663048495169</v>
+      </c>
+      <c r="J9">
+        <v>0.6985288624016814</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01289433333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.038683</v>
+      </c>
+      <c r="O9">
+        <v>0.0003115943983216321</v>
+      </c>
+      <c r="P9">
+        <v>0.0003865468544291307</v>
+      </c>
+      <c r="Q9">
+        <v>0.01006633525233333</v>
+      </c>
+      <c r="R9">
+        <v>0.060398011514</v>
+      </c>
+      <c r="S9">
+        <v>0.0002419737105164383</v>
+      </c>
+      <c r="T9">
+        <v>0.000270014134489329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.780679</v>
+      </c>
+      <c r="H10">
+        <v>1.561358</v>
+      </c>
+      <c r="I10">
+        <v>0.7765663048495169</v>
+      </c>
+      <c r="J10">
+        <v>0.6985288624016814</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.75897433333333</v>
+      </c>
+      <c r="N10">
+        <v>38.276923</v>
+      </c>
+      <c r="O10">
+        <v>0.3083234183436765</v>
+      </c>
+      <c r="P10">
+        <v>0.3824890567659189</v>
+      </c>
+      <c r="Q10">
+        <v>9.960663323572334</v>
+      </c>
+      <c r="R10">
+        <v>59.76397994143399</v>
+      </c>
+      <c r="S10">
+        <v>0.2394335776817206</v>
+      </c>
+      <c r="T10">
+        <v>0.2671796457037895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.780679</v>
+      </c>
+      <c r="H11">
+        <v>1.561358</v>
+      </c>
+      <c r="I11">
+        <v>0.7765663048495169</v>
+      </c>
+      <c r="J11">
+        <v>0.6985288624016814</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.124261000000001</v>
+      </c>
+      <c r="N11">
+        <v>12.248522</v>
+      </c>
+      <c r="O11">
+        <v>0.1479941127725076</v>
+      </c>
+      <c r="P11">
+        <v>0.1223955652484555</v>
+      </c>
+      <c r="Q11">
+        <v>4.781081953219001</v>
+      </c>
+      <c r="R11">
+        <v>19.124327812876</v>
+      </c>
+      <c r="S11">
+        <v>0.1149272412952289</v>
+      </c>
+      <c r="T11">
+        <v>0.0854968349560144</v>
       </c>
     </row>
   </sheetData>
